--- a/data/trans_orig/P36S1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36S1-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E698C67-BE7E-4230-8461-6341368F707B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8878F30C-FB1B-4321-BB7E-EFCBAC26F208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7F2A64B0-E128-405D-9A06-3D49B4E801DD}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{699A39C8-2FA2-45FD-8427-1FAF0B3CC23D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="416">
   <si>
     <t>Población según lo que suelen desayunar habitualmente / respuesta 1 en 2007 (Tasa respuesta: 99,83%)</t>
   </si>
@@ -76,1201 +76,1216 @@
     <t>2,59%</t>
   </si>
   <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>Otro tipo de alimentos</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>Alimentos como huevos, queso, jamón, etc</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>Fruta y/o zumo</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>Pan, tostadas, galletas, cereales, bollería, etc</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>Café, leche, té, chocolate, cacao, yogur, etc</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según lo que suelen desayunar habitualmente / respuesta 1 en 2012 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
     <t>1,71%</t>
   </si>
   <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>Otro tipo de alimentos</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
   </si>
   <si>
     <t>0,57%</t>
   </si>
   <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
   </si>
   <si>
     <t>0,7%</t>
   </si>
   <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>Alimentos como huevos, queso, jamón, etc</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>Población según lo que suelen desayunar habitualmente / respuesta 1 en 2015 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
   </si>
   <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>Fruta y/o zumo</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>Pan, tostadas, galletas, cereales, bollería, etc</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>Café, leche, té, chocolate, cacao, yogur, etc</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
   </si>
   <si>
     <t>4,52%</t>
   </si>
   <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según lo que suelen desayunar habitualmente / respuesta 1 en 2012 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
     <t>4,41%</t>
   </si>
   <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>Población según lo que suelen desayunar habitualmente / respuesta 1 en 2015 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
   </si>
   <si>
     <t>90,67%</t>
   </si>
   <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
   </si>
   <si>
     <t>93,43%</t>
   </si>
   <si>
-    <t>94,3%</t>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
   </si>
   <si>
     <t>92,08%</t>
   </si>
   <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
   </si>
 </sst>
 </file>
@@ -1682,7 +1697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB16F00-21C7-422D-932A-2851A8A08431}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD2EF7C-145C-4240-A6DE-457572B02935}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1836,19 +1851,19 @@
         <v>41744</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -1857,13 +1872,13 @@
         <v>1041</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -1872,13 +1887,13 @@
         <v>3021</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -1887,19 +1902,19 @@
         <v>4061</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>2</v>
@@ -1908,13 +1923,13 @@
         <v>1886</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -1923,13 +1938,13 @@
         <v>916</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -1938,19 +1953,19 @@
         <v>2802</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7">
         <v>8</v>
@@ -1959,10 +1974,10 @@
         <v>8202</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>38</v>
@@ -2058,7 +2073,7 @@
         <v>950</v>
       </c>
       <c r="D9" s="7">
-        <v>942823</v>
+        <v>942822</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>56</v>
@@ -2109,7 +2124,7 @@
         <v>1034</v>
       </c>
       <c r="D10" s="7">
-        <v>1027748</v>
+        <v>1027747</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>65</v>
@@ -2180,13 +2195,13 @@
         <v>30590</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M11" s="7">
         <v>66</v>
@@ -2195,19 +2210,19 @@
         <v>64518</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="7">
         <v>4</v>
@@ -2216,13 +2231,13 @@
         <v>4307</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -2231,13 +2246,13 @@
         <v>4055</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -2246,19 +2261,19 @@
         <v>8363</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="7">
         <v>2</v>
@@ -2267,13 +2282,13 @@
         <v>2618</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2282,13 +2297,13 @@
         <v>929</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -2297,19 +2312,19 @@
         <v>3547</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="7">
         <v>21</v>
@@ -2318,7 +2333,7 @@
         <v>22494</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>89</v>
@@ -2333,7 +2348,7 @@
         <v>30580</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>91</v>
@@ -2426,7 +2441,7 @@
         <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="H16" s="7">
         <v>1371</v>
@@ -2435,13 +2450,13 @@
         <v>1407550</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>2858</v>
@@ -2450,13 +2465,13 @@
         <v>2932906</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2512,7 +2527,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2524,13 +2539,13 @@
         <v>6946</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>7</v>
@@ -2539,13 +2554,13 @@
         <v>7884</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -2554,19 +2569,19 @@
         <v>14829</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P18" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="7">
         <v>4</v>
@@ -2575,10 +2590,10 @@
         <v>4095</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>124</v>
@@ -2590,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>125</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -2605,19 +2620,19 @@
         <v>4095</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="7">
         <v>2</v>
@@ -2626,13 +2641,13 @@
         <v>1995</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2641,13 +2656,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>125</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -2656,19 +2671,19 @@
         <v>1995</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="7">
         <v>8</v>
@@ -2677,13 +2692,13 @@
         <v>8334</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>131</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -2692,13 +2707,13 @@
         <v>5937</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M21" s="7">
         <v>13</v>
@@ -2707,13 +2722,13 @@
         <v>14271</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2728,13 +2743,13 @@
         <v>31159</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H22" s="7">
         <v>31</v>
@@ -2743,13 +2758,13 @@
         <v>31481</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M22" s="7">
         <v>61</v>
@@ -2758,13 +2773,13 @@
         <v>62640</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2779,13 +2794,13 @@
         <v>497110</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H23" s="7">
         <v>409</v>
@@ -2794,28 +2809,28 @@
         <v>431110</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M23" s="7">
         <v>883</v>
       </c>
       <c r="N23" s="7">
-        <v>928221</v>
+        <v>928220</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2857,7 +2872,7 @@
         <v>977</v>
       </c>
       <c r="N24" s="7">
-        <v>1026051</v>
+        <v>1026050</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>65</v>
@@ -2883,13 +2898,13 @@
         <v>67542</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>159</v>
+        <v>92</v>
       </c>
       <c r="H25" s="7">
         <v>52</v>
@@ -2898,13 +2913,13 @@
         <v>53550</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M25" s="7">
         <v>120</v>
@@ -2913,19 +2928,19 @@
         <v>121092</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="7">
         <v>9</v>
@@ -2934,13 +2949,13 @@
         <v>9443</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -2949,13 +2964,13 @@
         <v>7076</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M26" s="7">
         <v>16</v>
@@ -2964,19 +2979,19 @@
         <v>16519</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="7">
         <v>6</v>
@@ -2988,10 +3003,10 @@
         <v>167</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H27" s="7">
         <v>2</v>
@@ -3003,10 +3018,10 @@
         <v>168</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="M27" s="7">
         <v>8</v>
@@ -3018,16 +3033,16 @@
         <v>169</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>79</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="7">
         <v>37</v>
@@ -3036,13 +3051,13 @@
         <v>39030</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="H28" s="7">
         <v>50</v>
@@ -3051,13 +3066,13 @@
         <v>49843</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="M28" s="7">
         <v>87</v>
@@ -3066,13 +3081,13 @@
         <v>88873</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,10 +3102,10 @@
         <v>182013</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>178</v>
@@ -3159,7 +3174,7 @@
         <v>189</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>60</v>
+        <v>190</v>
       </c>
       <c r="M30" s="7">
         <v>5890</v>
@@ -3168,13 +3183,13 @@
         <v>6024139</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,7 +3245,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -3249,7 +3264,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26AC29D2-2375-41DC-BBFA-8A7988795434}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7615DDEF-0FB8-44B2-A12C-6E7396E5D40D}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3266,7 +3281,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3373,13 +3388,13 @@
         <v>24706</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -3388,7 +3403,7 @@
         <v>9084</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>199</v>
@@ -3406,16 +3421,16 @@
         <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>5</v>
@@ -3424,13 +3439,13 @@
         <v>4980</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>169</v>
+        <v>30</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -3439,13 +3454,13 @@
         <v>6504</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>202</v>
+        <v>80</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>204</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -3454,10 +3469,10 @@
         <v>11484</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>204</v>
+        <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>205</v>
+        <v>75</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>206</v>
@@ -3466,7 +3481,7 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>4</v>
@@ -3475,13 +3490,13 @@
         <v>3818</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -3490,13 +3505,13 @@
         <v>2976</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -3505,19 +3520,19 @@
         <v>6794</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>169</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>85</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7">
         <v>15</v>
@@ -3544,10 +3559,10 @@
         <v>213</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M7" s="7">
         <v>29</v>
@@ -3556,13 +3571,13 @@
         <v>32103</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3577,13 +3592,13 @@
         <v>26778</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H8" s="7">
         <v>32</v>
@@ -3592,10 +3607,10 @@
         <v>34691</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>159</v>
+        <v>220</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>221</v>
@@ -3613,7 +3628,7 @@
         <v>223</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3628,13 +3643,13 @@
         <v>894414</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H9" s="7">
         <v>1182</v>
@@ -3643,13 +3658,13 @@
         <v>1268353</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M9" s="7">
         <v>2016</v>
@@ -3658,7 +3673,7 @@
         <v>2162767</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>231</v>
@@ -3750,10 +3765,10 @@
         <v>236</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>95</v>
+        <v>237</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M11" s="7">
         <v>91</v>
@@ -3762,19 +3777,19 @@
         <v>102875</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="7">
         <v>5</v>
@@ -3783,13 +3798,13 @@
         <v>5036</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -3798,13 +3813,13 @@
         <v>4394</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>81</v>
+        <v>241</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -3813,19 +3828,19 @@
         <v>9430</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="7">
         <v>5</v>
@@ -3834,13 +3849,13 @@
         <v>5911</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>243</v>
+        <v>36</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -3849,13 +3864,13 @@
         <v>5698</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -3867,16 +3882,16 @@
         <v>199</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="7">
         <v>36</v>
@@ -3885,13 +3900,13 @@
         <v>36544</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H14" s="7">
         <v>30</v>
@@ -3900,13 +3915,13 @@
         <v>31178</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>246</v>
+        <v>171</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>11</v>
+        <v>247</v>
       </c>
       <c r="M14" s="7">
         <v>66</v>
@@ -3915,13 +3930,13 @@
         <v>67722</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>121</v>
+        <v>248</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,13 +3951,13 @@
         <v>87704</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>248</v>
+        <v>142</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H15" s="7">
         <v>56</v>
@@ -3951,13 +3966,13 @@
         <v>60765</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>120</v>
+        <v>252</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M15" s="7">
         <v>139</v>
@@ -3966,13 +3981,13 @@
         <v>148469</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,13 +4002,13 @@
         <v>1773340</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H16" s="7">
         <v>1491</v>
@@ -4002,10 +4017,10 @@
         <v>1602522</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>259</v>
+        <v>186</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>260</v>
@@ -4079,7 +4094,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -4094,7 +4109,7 @@
         <v>264</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>211</v>
+        <v>128</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>265</v>
@@ -4106,13 +4121,13 @@
         <v>1970</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -4121,19 +4136,19 @@
         <v>12745</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="P18" s="7" t="s">
-        <v>119</v>
-      </c>
       <c r="Q18" s="7" t="s">
-        <v>268</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
@@ -4145,10 +4160,10 @@
         <v>167</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>268</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -4157,13 +4172,13 @@
         <v>980</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>269</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -4172,19 +4187,19 @@
         <v>1937</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>119</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -4193,13 +4208,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>125</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4208,13 +4223,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>125</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4223,19 +4238,19 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>125</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="7">
         <v>10</v>
@@ -4244,13 +4259,13 @@
         <v>9837</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>90</v>
+        <v>273</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -4259,13 +4274,13 @@
         <v>4119</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M21" s="7">
         <v>14</v>
@@ -4274,13 +4289,13 @@
         <v>13957</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,13 +4310,13 @@
         <v>21386</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -4313,10 +4328,10 @@
         <v>233</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>281</v>
+        <v>46</v>
       </c>
       <c r="M22" s="7">
         <v>31</v>
@@ -4325,10 +4340,10 @@
         <v>33660</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>283</v>
@@ -4376,13 +4391,13 @@
         <v>875313</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>63</v>
+        <v>291</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,13 +4465,13 @@
         <v>88041</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H25" s="7">
         <v>56</v>
@@ -4465,13 +4480,13 @@
         <v>61369</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>18</v>
+        <v>297</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="M25" s="7">
         <v>132</v>
@@ -4480,19 +4495,19 @@
         <v>149410</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>296</v>
+        <v>162</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>219</v>
+        <v>299</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>117</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="7">
         <v>11</v>
@@ -4501,13 +4516,13 @@
         <v>10973</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>297</v>
+        <v>115</v>
       </c>
       <c r="H26" s="7">
         <v>11</v>
@@ -4516,13 +4531,13 @@
         <v>11878</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>43</v>
+        <v>244</v>
       </c>
       <c r="M26" s="7">
         <v>22</v>
@@ -4531,19 +4546,19 @@
         <v>22852</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>202</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="7">
         <v>9</v>
@@ -4552,13 +4567,13 @@
         <v>9730</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>165</v>
+        <v>33</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>23</v>
+        <v>302</v>
       </c>
       <c r="H27" s="7">
         <v>8</v>
@@ -4567,13 +4582,13 @@
         <v>8674</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>83</v>
+        <v>301</v>
       </c>
       <c r="M27" s="7">
         <v>17</v>
@@ -4582,19 +4597,19 @@
         <v>18404</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>269</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="7">
         <v>61</v>
@@ -4603,13 +4618,13 @@
         <v>64328</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>300</v>
+        <v>68</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>139</v>
+        <v>304</v>
       </c>
       <c r="H28" s="7">
         <v>48</v>
@@ -4618,13 +4633,13 @@
         <v>49455</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>271</v>
+        <v>213</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>16</v>
+        <v>305</v>
       </c>
       <c r="M28" s="7">
         <v>109</v>
@@ -4633,13 +4648,13 @@
         <v>113782</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>267</v>
+        <v>200</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4654,13 +4669,13 @@
         <v>135868</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="H29" s="7">
         <v>99</v>
@@ -4669,13 +4684,13 @@
         <v>107729</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>212</v>
+        <v>311</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="M29" s="7">
         <v>228</v>
@@ -4684,13 +4699,13 @@
         <v>243597</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>309</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4705,13 +4720,13 @@
         <v>3104941</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="H30" s="7">
         <v>3066</v>
@@ -4720,13 +4735,13 @@
         <v>3309001</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="M30" s="7">
         <v>5976</v>
@@ -4735,13 +4750,13 @@
         <v>6413942</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4797,7 +4812,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -4816,7 +4831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C94CE5-9C11-4536-B322-3F26504CE501}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EDDCF7-C1FB-4818-B620-4FA019464E9D}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4833,7 +4848,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4943,10 +4958,10 @@
         <v>201</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>320</v>
+        <v>121</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -4958,10 +4973,10 @@
         <v>43</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>134</v>
+        <v>325</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -4970,19 +4985,19 @@
         <v>16806</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>321</v>
+        <v>207</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>23</v>
+        <v>326</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>3</v>
@@ -4991,13 +5006,13 @@
         <v>3146</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>169</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>268</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -5006,13 +5021,13 @@
         <v>4231</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>266</v>
+        <v>28</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>169</v>
+        <v>85</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>271</v>
+        <v>213</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -5021,19 +5036,19 @@
         <v>7377</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>2</v>
@@ -5042,13 +5057,13 @@
         <v>1880</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>323</v>
+        <v>276</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -5057,13 +5072,13 @@
         <v>1049</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>324</v>
+        <v>40</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -5072,19 +5087,19 @@
         <v>2929</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>168</v>
+        <v>86</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7">
         <v>16</v>
@@ -5093,13 +5108,13 @@
         <v>16505</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>326</v>
+        <v>252</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -5108,13 +5123,13 @@
         <v>9070</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>269</v>
+        <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M7" s="7">
         <v>25</v>
@@ -5126,10 +5141,10 @@
         <v>201</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>160</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5144,13 +5159,13 @@
         <v>34962</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>47</v>
+        <v>333</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H8" s="7">
         <v>19</v>
@@ -5159,13 +5174,13 @@
         <v>20228</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>332</v>
+        <v>159</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>94</v>
+        <v>335</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M8" s="7">
         <v>55</v>
@@ -5174,13 +5189,13 @@
         <v>55191</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>335</v>
+        <v>137</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5195,13 +5210,13 @@
         <v>685045</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H9" s="7">
         <v>852</v>
@@ -5210,13 +5225,13 @@
         <v>953104</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M9" s="7">
         <v>1545</v>
@@ -5225,13 +5240,13 @@
         <v>1638149</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>344</v>
+        <v>231</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5299,7 +5314,7 @@
         <v>47813</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>346</v>
+        <v>249</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>347</v>
@@ -5317,10 +5332,10 @@
         <v>349</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="M11" s="7">
         <v>71</v>
@@ -5329,19 +5344,19 @@
         <v>76314</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="7">
         <v>8</v>
@@ -5350,13 +5365,13 @@
         <v>8829</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>266</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>351</v>
+        <v>36</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -5365,13 +5380,13 @@
         <v>7174</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>123</v>
+        <v>204</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M12" s="7">
         <v>14</v>
@@ -5380,10 +5395,10 @@
         <v>16003</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>15</v>
@@ -5392,7 +5407,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="7">
         <v>5</v>
@@ -5401,13 +5416,13 @@
         <v>5367</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>23</v>
+        <v>244</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -5416,13 +5431,13 @@
         <v>5160</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -5431,19 +5446,19 @@
         <v>10527</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>202</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="7">
         <v>37</v>
@@ -5452,13 +5467,13 @@
         <v>38824</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>267</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>354</v>
+        <v>220</v>
       </c>
       <c r="H14" s="7">
         <v>26</v>
@@ -5467,13 +5482,13 @@
         <v>26151</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>44</v>
+        <v>297</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="M14" s="7">
         <v>63</v>
@@ -5482,13 +5497,13 @@
         <v>64975</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>158</v>
+        <v>354</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>67</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5506,7 +5521,7 @@
         <v>355</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>356</v>
@@ -5521,10 +5536,10 @@
         <v>357</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>120</v>
+        <v>358</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M15" s="7">
         <v>185</v>
@@ -5533,13 +5548,13 @@
         <v>195659</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>359</v>
+        <v>145</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5554,13 +5569,13 @@
         <v>1861674</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="H16" s="7">
         <v>1758</v>
@@ -5575,7 +5590,7 @@
         <v>364</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>226</v>
+        <v>365</v>
       </c>
       <c r="M16" s="7">
         <v>3513</v>
@@ -5587,10 +5602,10 @@
         <v>284</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5646,7 +5661,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -5661,10 +5676,10 @@
         <v>39</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>239</v>
+        <v>368</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -5673,13 +5688,13 @@
         <v>948</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>14</v>
+        <v>369</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
@@ -5688,19 +5703,19 @@
         <v>6490</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>367</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -5709,13 +5724,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5724,13 +5739,13 @@
         <v>922</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>37</v>
+        <v>215</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -5739,19 +5754,19 @@
         <v>922</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>266</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="7">
         <v>2</v>
@@ -5760,13 +5775,13 @@
         <v>2034</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>370</v>
+        <v>84</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -5775,13 +5790,13 @@
         <v>981</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>273</v>
+        <v>372</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -5790,19 +5805,19 @@
         <v>3015</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>89</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="7">
         <v>5</v>
@@ -5811,13 +5826,13 @@
         <v>5483</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>128</v>
+        <v>370</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>346</v>
+        <v>375</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -5826,13 +5841,13 @@
         <v>5934</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>175</v>
+        <v>376</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
@@ -5841,13 +5856,13 @@
         <v>11417</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>211</v>
+        <v>378</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>373</v>
+        <v>326</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>73</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5862,13 +5877,13 @@
         <v>21793</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>291</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="H22" s="7">
         <v>31</v>
@@ -5877,13 +5892,13 @@
         <v>31584</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="M22" s="7">
         <v>52</v>
@@ -5892,13 +5907,13 @@
         <v>53377</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>13</v>
+        <v>384</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>380</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5913,13 +5928,13 @@
         <v>512033</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>382</v>
+        <v>339</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="H23" s="7">
         <v>486</v>
@@ -5928,13 +5943,13 @@
         <v>508771</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M23" s="7">
         <v>954</v>
@@ -5943,13 +5958,13 @@
         <v>1020804</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,13 +6032,13 @@
         <v>64378</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>121</v>
+        <v>394</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>139</v>
+        <v>282</v>
       </c>
       <c r="H25" s="7">
         <v>35</v>
@@ -6032,13 +6047,13 @@
         <v>35232</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>137</v>
+        <v>70</v>
       </c>
       <c r="M25" s="7">
         <v>93</v>
@@ -6047,19 +6062,19 @@
         <v>99610</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>300</v>
+        <v>68</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>391</v>
+        <v>325</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="7">
         <v>11</v>
@@ -6068,13 +6083,13 @@
         <v>11975</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>33</v>
+        <v>396</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>85</v>
+        <v>241</v>
       </c>
       <c r="H26" s="7">
         <v>11</v>
@@ -6083,13 +6098,13 @@
         <v>12328</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>33</v>
+        <v>396</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M26" s="7">
         <v>22</v>
@@ -6098,19 +6113,19 @@
         <v>24303</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>33</v>
+        <v>396</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>24</v>
+        <v>208</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="7">
         <v>9</v>
@@ -6119,13 +6134,13 @@
         <v>9281</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>169</v>
+        <v>33</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>202</v>
+        <v>302</v>
       </c>
       <c r="H27" s="7">
         <v>7</v>
@@ -6137,10 +6152,10 @@
         <v>167</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>368</v>
+        <v>133</v>
       </c>
       <c r="M27" s="7">
         <v>16</v>
@@ -6149,19 +6164,19 @@
         <v>16471</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>207</v>
+        <v>370</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="7">
         <v>58</v>
@@ -6170,13 +6185,13 @@
         <v>60813</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>393</v>
+        <v>214</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>394</v>
+        <v>297</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>395</v>
+        <v>249</v>
       </c>
       <c r="H28" s="7">
         <v>41</v>
@@ -6185,13 +6200,13 @@
         <v>41155</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>391</v>
+        <v>325</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>396</v>
+        <v>89</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>397</v>
+        <v>157</v>
       </c>
       <c r="M28" s="7">
         <v>99</v>
@@ -6200,13 +6215,13 @@
         <v>101968</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>367</v>
+        <v>397</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>161</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6227,7 +6242,7 @@
         <v>399</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="H29" s="7">
         <v>133</v>
@@ -6236,13 +6251,13 @@
         <v>135779</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>144</v>
+        <v>403</v>
       </c>
       <c r="M29" s="7">
         <v>292</v>
@@ -6251,13 +6266,13 @@
         <v>304227</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>252</v>
+        <v>404</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>309</v>
+        <v>405</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6269,16 +6284,16 @@
         <v>2916</v>
       </c>
       <c r="D30" s="7">
-        <v>3058752</v>
+        <v>3058753</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="H30" s="7">
         <v>3096</v>
@@ -6287,13 +6302,13 @@
         <v>3297165</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>231</v>
+        <v>411</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="M30" s="7">
         <v>6012</v>
@@ -6302,13 +6317,13 @@
         <v>6355918</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6320,7 +6335,7 @@
         <v>3211</v>
       </c>
       <c r="D31" s="7">
-        <v>3373647</v>
+        <v>3373648</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>65</v>
@@ -6364,7 +6379,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36S1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36S1-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8878F30C-FB1B-4321-BB7E-EFCBAC26F208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A18E914-9907-4CBE-8E9D-4AE94C0AA6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{699A39C8-2FA2-45FD-8427-1FAF0B3CC23D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8AF6C1BB-401E-4B9E-AC68-61554E36987D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="413">
   <si>
     <t>Población según lo que suelen desayunar habitualmente / respuesta 1 en 2007 (Tasa respuesta: 99,83%)</t>
   </si>
@@ -76,1216 +76,1207 @@
     <t>2,59%</t>
   </si>
   <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
     <t>1,78%</t>
   </si>
   <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>Otro tipo de alimentos</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>Alimentos como huevos, queso, jamón, etc</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>Fruta y/o zumo</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>Pan, tostadas, galletas, cereales, bollería, etc</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>Café, leche, té, chocolate, cacao, yogur, etc</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
   </si>
   <si>
     <t>1,93%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>Otro tipo de alimentos</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según lo que suelen desayunar habitualmente / respuesta 1 en 2012 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
   </si>
   <si>
     <t>0,5%</t>
   </si>
   <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>Población según lo que suelen desayunar habitualmente / respuesta 1 en 2016 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>Alimentos como huevos, queso, jamón, etc</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>Fruta y/o zumo</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>Pan, tostadas, galletas, cereales, bollería, etc</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>Café, leche, té, chocolate, cacao, yogur, etc</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>2,0%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
   </si>
   <si>
     <t>1,44%</t>
   </si>
   <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
   </si>
   <si>
     <t>2,43%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
   </si>
   <si>
     <t>1,2%</t>
   </si>
   <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según lo que suelen desayunar habitualmente / respuesta 1 en 2012 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>Población según lo que suelen desayunar habitualmente / respuesta 1 en 2015 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
     <t>4,99%</t>
   </si>
   <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
+    <t>4,34%</t>
   </si>
   <si>
     <t>3,85%</t>
   </si>
   <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
   </si>
   <si>
     <t>4,41%</t>
   </si>
   <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
+    <t>3,91%</t>
   </si>
   <si>
     <t>90,67%</t>
   </si>
   <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
   </si>
   <si>
     <t>93,43%</t>
   </si>
   <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
   </si>
   <si>
     <t>92,08%</t>
   </si>
   <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
   </si>
 </sst>
 </file>
@@ -1697,7 +1688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD2EF7C-145C-4240-A6DE-457572B02935}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21AFA56A-6C85-4C2D-BF33-A55243D075BA}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1851,19 +1842,19 @@
         <v>41744</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -1872,13 +1863,13 @@
         <v>1041</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -1887,13 +1878,13 @@
         <v>3021</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -1902,19 +1893,19 @@
         <v>4061</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>2</v>
@@ -1923,13 +1914,13 @@
         <v>1886</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -1938,13 +1929,13 @@
         <v>916</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -1953,19 +1944,19 @@
         <v>2802</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
         <v>8</v>
@@ -1974,10 +1965,10 @@
         <v>8202</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>38</v>
@@ -2073,7 +2064,7 @@
         <v>950</v>
       </c>
       <c r="D9" s="7">
-        <v>942822</v>
+        <v>942823</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>56</v>
@@ -2124,7 +2115,7 @@
         <v>1034</v>
       </c>
       <c r="D10" s="7">
-        <v>1027747</v>
+        <v>1027748</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>65</v>
@@ -2195,13 +2186,13 @@
         <v>30590</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M11" s="7">
         <v>66</v>
@@ -2210,19 +2201,19 @@
         <v>64518</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="7">
         <v>4</v>
@@ -2231,13 +2222,13 @@
         <v>4307</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -2246,13 +2237,13 @@
         <v>4055</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -2261,19 +2252,19 @@
         <v>8363</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="7">
         <v>2</v>
@@ -2282,13 +2273,13 @@
         <v>2618</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2297,10 +2288,10 @@
         <v>929</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>84</v>
@@ -2324,7 +2315,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="7">
         <v>21</v>
@@ -2333,13 +2324,13 @@
         <v>22494</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>31</v>
@@ -2348,13 +2339,13 @@
         <v>30580</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M14" s="7">
         <v>52</v>
@@ -2363,13 +2354,13 @@
         <v>53074</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,13 +2375,13 @@
         <v>103727</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H15" s="7">
         <v>114</v>
@@ -2399,13 +2390,13 @@
         <v>111919</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M15" s="7">
         <v>213</v>
@@ -2414,13 +2405,13 @@
         <v>215646</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2435,13 +2426,13 @@
         <v>1525356</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H16" s="7">
         <v>1371</v>
@@ -2450,13 +2441,13 @@
         <v>1407550</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>2858</v>
@@ -2465,13 +2456,13 @@
         <v>2932906</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2527,7 +2518,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2539,13 +2530,13 @@
         <v>6946</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>7</v>
@@ -2554,13 +2545,13 @@
         <v>7884</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -2569,19 +2560,19 @@
         <v>14829</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P18" s="7" t="s">
-        <v>121</v>
-      </c>
       <c r="Q18" s="7" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" s="7">
         <v>4</v>
@@ -2590,13 +2581,13 @@
         <v>4095</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2605,13 +2596,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -2620,19 +2611,19 @@
         <v>4095</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" s="7">
         <v>2</v>
@@ -2641,13 +2632,13 @@
         <v>1995</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2656,13 +2647,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -2674,16 +2665,16 @@
         <v>129</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="7">
         <v>8</v>
@@ -2692,7 +2683,7 @@
         <v>8334</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>131</v>
@@ -2707,13 +2698,13 @@
         <v>5937</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M21" s="7">
         <v>13</v>
@@ -2722,13 +2713,13 @@
         <v>14271</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2761,10 +2752,10 @@
         <v>141</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M22" s="7">
         <v>61</v>
@@ -2773,13 +2764,13 @@
         <v>62640</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2794,13 +2785,13 @@
         <v>497110</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H23" s="7">
         <v>409</v>
@@ -2809,7 +2800,7 @@
         <v>431110</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>150</v>
@@ -2904,7 +2895,7 @@
         <v>156</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="H25" s="7">
         <v>52</v>
@@ -2913,13 +2904,13 @@
         <v>53550</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M25" s="7">
         <v>120</v>
@@ -2928,19 +2919,19 @@
         <v>121092</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>9</v>
@@ -2949,13 +2940,13 @@
         <v>9443</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>164</v>
+        <v>43</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -2967,7 +2958,7 @@
         <v>165</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>166</v>
@@ -2979,19 +2970,19 @@
         <v>16519</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>133</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" s="7">
         <v>6</v>
@@ -3003,10 +2994,10 @@
         <v>167</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>166</v>
       </c>
       <c r="H27" s="7">
         <v>2</v>
@@ -3018,10 +3009,10 @@
         <v>168</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="M27" s="7">
         <v>8</v>
@@ -3033,7 +3024,7 @@
         <v>169</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>83</v>
+        <v>168</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>170</v>
@@ -3042,7 +3033,7 @@
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C28" s="7">
         <v>37</v>
@@ -3057,7 +3048,7 @@
         <v>172</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="H28" s="7">
         <v>50</v>
@@ -3066,13 +3057,13 @@
         <v>49843</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>16</v>
+        <v>176</v>
       </c>
       <c r="M28" s="7">
         <v>87</v>
@@ -3081,13 +3072,13 @@
         <v>88873</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>117</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3102,13 +3093,13 @@
         <v>182013</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H29" s="7">
         <v>203</v>
@@ -3117,13 +3108,13 @@
         <v>204008</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M29" s="7">
         <v>379</v>
@@ -3132,13 +3123,13 @@
         <v>386022</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3153,13 +3144,13 @@
         <v>2965289</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H30" s="7">
         <v>2979</v>
@@ -3168,13 +3159,13 @@
         <v>3058851</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M30" s="7">
         <v>5890</v>
@@ -3183,13 +3174,13 @@
         <v>6024139</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3245,7 +3236,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -3264,7 +3255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7615DDEF-0FB8-44B2-A12C-6E7396E5D40D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5AE295-3EE3-4546-8425-ABDA47D81B4B}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3281,7 +3272,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3388,13 +3379,13 @@
         <v>24706</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>197</v>
+        <v>41</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>198</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -3403,13 +3394,13 @@
         <v>9084</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
@@ -3418,10 +3409,10 @@
         <v>33790</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>202</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>203</v>
@@ -3430,7 +3421,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>5</v>
@@ -3439,13 +3430,13 @@
         <v>4980</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -3454,7 +3445,7 @@
         <v>6504</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>204</v>
@@ -3469,19 +3460,19 @@
         <v>11484</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>4</v>
@@ -3490,13 +3481,13 @@
         <v>3818</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -3505,13 +3496,13 @@
         <v>2976</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -3520,19 +3511,19 @@
         <v>6794</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
         <v>15</v>
@@ -3541,13 +3532,13 @@
         <v>17946</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -3556,13 +3547,13 @@
         <v>14157</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>25</v>
+        <v>216</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M7" s="7">
         <v>29</v>
@@ -3571,13 +3562,13 @@
         <v>32103</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,13 +3583,13 @@
         <v>26778</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H8" s="7">
         <v>32</v>
@@ -3607,13 +3598,13 @@
         <v>34691</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="M8" s="7">
         <v>58</v>
@@ -3622,13 +3613,13 @@
         <v>61469</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>223</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3643,13 +3634,13 @@
         <v>894414</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H9" s="7">
         <v>1182</v>
@@ -3658,13 +3649,13 @@
         <v>1268353</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M9" s="7">
         <v>2016</v>
@@ -3673,13 +3664,13 @@
         <v>2162767</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3747,13 +3738,13 @@
         <v>52560</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H11" s="7">
         <v>46</v>
@@ -3762,13 +3753,13 @@
         <v>50315</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M11" s="7">
         <v>91</v>
@@ -3777,19 +3768,19 @@
         <v>102875</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="7">
         <v>5</v>
@@ -3798,13 +3789,13 @@
         <v>5036</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -3813,13 +3804,13 @@
         <v>4394</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>241</v>
+        <v>78</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -3828,19 +3819,19 @@
         <v>9430</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>242</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="7">
         <v>5</v>
@@ -3849,13 +3840,13 @@
         <v>5911</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>36</v>
+        <v>246</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -3864,13 +3855,13 @@
         <v>5698</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>34</v>
+        <v>201</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>85</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>36</v>
+        <v>247</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -3879,19 +3870,19 @@
         <v>11610</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>199</v>
+        <v>87</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>81</v>
+        <v>204</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="7">
         <v>36</v>
@@ -3900,13 +3891,13 @@
         <v>36544</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>124</v>
+        <v>248</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>245</v>
+        <v>71</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H14" s="7">
         <v>30</v>
@@ -3915,13 +3906,13 @@
         <v>31178</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>171</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M14" s="7">
         <v>66</v>
@@ -3930,13 +3921,13 @@
         <v>67722</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3951,13 +3942,13 @@
         <v>87704</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>142</v>
+        <v>253</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H15" s="7">
         <v>56</v>
@@ -3966,13 +3957,13 @@
         <v>60765</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M15" s="7">
         <v>139</v>
@@ -3981,13 +3972,13 @@
         <v>148469</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,13 +3993,13 @@
         <v>1773340</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>257</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H16" s="7">
         <v>1491</v>
@@ -4017,13 +4008,13 @@
         <v>1602522</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>186</v>
+        <v>262</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="M16" s="7">
         <v>3170</v>
@@ -4032,13 +4023,13 @@
         <v>3375862</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>262</v>
+        <v>196</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,7 +4085,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -4106,13 +4097,13 @@
         <v>10775</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>128</v>
+        <v>267</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -4121,13 +4112,13 @@
         <v>1970</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>166</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>266</v>
+        <v>162</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -4136,19 +4127,19 @@
         <v>12745</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>70</v>
+        <v>269</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
@@ -4160,10 +4151,10 @@
         <v>167</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -4175,10 +4166,10 @@
         <v>165</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>269</v>
+        <v>159</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -4190,16 +4181,16 @@
         <v>165</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -4208,13 +4199,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4223,13 +4214,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4238,19 +4229,19 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="7">
         <v>10</v>
@@ -4259,13 +4250,13 @@
         <v>9837</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -4274,13 +4265,13 @@
         <v>4119</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="M21" s="7">
         <v>14</v>
@@ -4289,7 +4280,7 @@
         <v>13957</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>277</v>
+        <v>38</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>278</v>
@@ -4313,10 +4304,10 @@
         <v>280</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>222</v>
+        <v>281</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -4325,13 +4316,13 @@
         <v>12274</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>46</v>
+        <v>283</v>
       </c>
       <c r="M22" s="7">
         <v>31</v>
@@ -4340,13 +4331,13 @@
         <v>33660</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4361,13 +4352,13 @@
         <v>437186</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H23" s="7">
         <v>393</v>
@@ -4376,13 +4367,13 @@
         <v>438127</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M23" s="7">
         <v>790</v>
@@ -4391,13 +4382,13 @@
         <v>875313</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>291</v>
+        <v>60</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4465,10 +4456,10 @@
         <v>88041</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>294</v>
+        <v>155</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>295</v>
@@ -4483,10 +4474,10 @@
         <v>296</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M25" s="7">
         <v>132</v>
@@ -4495,19 +4486,19 @@
         <v>149410</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>162</v>
+        <v>298</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>299</v>
+        <v>17</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>196</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>11</v>
@@ -4516,13 +4507,13 @@
         <v>10973</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>34</v>
+        <v>201</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="H26" s="7">
         <v>11</v>
@@ -4531,13 +4522,13 @@
         <v>11878</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="M26" s="7">
         <v>22</v>
@@ -4546,19 +4537,19 @@
         <v>22852</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>165</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>301</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" s="7">
         <v>9</v>
@@ -4567,13 +4558,13 @@
         <v>9730</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>33</v>
+        <v>164</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>302</v>
+        <v>43</v>
       </c>
       <c r="H27" s="7">
         <v>8</v>
@@ -4588,7 +4579,7 @@
         <v>85</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="M27" s="7">
         <v>17</v>
@@ -4597,19 +4588,19 @@
         <v>18404</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C28" s="7">
         <v>61</v>
@@ -4618,13 +4609,13 @@
         <v>64328</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>303</v>
+        <v>221</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="H28" s="7">
         <v>48</v>
@@ -4633,13 +4624,13 @@
         <v>49455</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>213</v>
+        <v>300</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>305</v>
+        <v>161</v>
       </c>
       <c r="M28" s="7">
         <v>109</v>
@@ -4648,13 +4639,13 @@
         <v>113782</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>200</v>
+        <v>71</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4669,13 +4660,13 @@
         <v>135868</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="H29" s="7">
         <v>99</v>
@@ -4684,13 +4675,13 @@
         <v>107729</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>311</v>
+        <v>132</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="M29" s="7">
         <v>228</v>
@@ -4699,13 +4690,13 @@
         <v>243597</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>313</v>
+        <v>225</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>139</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,13 +4711,13 @@
         <v>3104941</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H30" s="7">
         <v>3066</v>
@@ -4735,13 +4726,13 @@
         <v>3309001</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>319</v>
+        <v>62</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="M30" s="7">
         <v>5976</v>
@@ -4750,13 +4741,13 @@
         <v>6413942</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4812,7 +4803,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -4831,7 +4822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EDDCF7-C1FB-4818-B620-4FA019464E9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31114044-96D3-4EDC-A6DD-F787DB9385E2}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4848,7 +4839,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4955,13 +4946,13 @@
         <v>11023</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>121</v>
+        <v>246</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>239</v>
+        <v>319</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -4970,13 +4961,13 @@
         <v>5783</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>43</v>
+        <v>216</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>129</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -4985,19 +4976,19 @@
         <v>16806</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>326</v>
+        <v>114</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>327</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>3</v>
@@ -5006,13 +4997,13 @@
         <v>3146</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>169</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -5021,13 +5012,13 @@
         <v>4231</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>28</v>
+        <v>166</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>85</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>213</v>
+        <v>270</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -5036,19 +5027,19 @@
         <v>7377</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>172</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>2</v>
@@ -5057,13 +5048,13 @@
         <v>1880</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -5075,10 +5066,10 @@
         <v>85</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>40</v>
+        <v>216</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -5087,19 +5078,19 @@
         <v>2929</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>86</v>
+        <v>168</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
         <v>16</v>
@@ -5108,13 +5099,13 @@
         <v>16505</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>245</v>
+        <v>324</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>325</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -5123,13 +5114,13 @@
         <v>9070</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>330</v>
+        <v>173</v>
       </c>
       <c r="M7" s="7">
         <v>25</v>
@@ -5138,13 +5129,13 @@
         <v>25576</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>237</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5159,13 +5150,13 @@
         <v>34962</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H8" s="7">
         <v>19</v>
@@ -5174,13 +5165,13 @@
         <v>20228</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>159</v>
+        <v>332</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="M8" s="7">
         <v>55</v>
@@ -5189,13 +5180,13 @@
         <v>55191</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>137</v>
+        <v>335</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5210,13 +5201,13 @@
         <v>685045</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="H9" s="7">
         <v>852</v>
@@ -5225,13 +5216,13 @@
         <v>953104</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="M9" s="7">
         <v>1545</v>
@@ -5240,13 +5231,13 @@
         <v>1638149</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>231</v>
+        <v>148</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5314,13 +5305,13 @@
         <v>47813</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>347</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>348</v>
+        <v>132</v>
       </c>
       <c r="H11" s="7">
         <v>28</v>
@@ -5329,13 +5320,13 @@
         <v>28501</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>349</v>
+        <v>68</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>331</v>
+        <v>218</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M11" s="7">
         <v>71</v>
@@ -5344,19 +5335,19 @@
         <v>76314</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>303</v>
+        <v>221</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>345</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>350</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="7">
         <v>8</v>
@@ -5365,13 +5356,13 @@
         <v>8829</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>166</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -5380,13 +5371,13 @@
         <v>7174</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>204</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>351</v>
+        <v>120</v>
       </c>
       <c r="M12" s="7">
         <v>14</v>
@@ -5395,19 +5386,19 @@
         <v>16003</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="7">
         <v>5</v>
@@ -5416,13 +5407,13 @@
         <v>5367</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>244</v>
+        <v>347</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -5431,13 +5422,13 @@
         <v>5160</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -5446,19 +5437,19 @@
         <v>10527</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>272</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="7">
         <v>37</v>
@@ -5467,13 +5458,13 @@
         <v>38824</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>220</v>
+        <v>349</v>
       </c>
       <c r="H14" s="7">
         <v>26</v>
@@ -5482,13 +5473,13 @@
         <v>26151</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>297</v>
+        <v>350</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>353</v>
+        <v>172</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
         <v>63</v>
@@ -5497,13 +5488,13 @@
         <v>64975</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5518,13 +5509,13 @@
         <v>111692</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>265</v>
+        <v>353</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H15" s="7">
         <v>83</v>
@@ -5533,13 +5524,13 @@
         <v>83966</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>358</v>
+        <v>47</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="M15" s="7">
         <v>185</v>
@@ -5548,13 +5539,13 @@
         <v>195659</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>145</v>
+        <v>357</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5569,13 +5560,13 @@
         <v>1861674</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="H16" s="7">
         <v>1758</v>
@@ -5587,25 +5578,25 @@
         <v>62</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="M16" s="7">
         <v>3513</v>
       </c>
       <c r="N16" s="7">
-        <v>3696962</v>
+        <v>3696963</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>366</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5647,7 +5638,7 @@
         <v>3856</v>
       </c>
       <c r="N17" s="7">
-        <v>4060440</v>
+        <v>4060441</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>65</v>
@@ -5661,7 +5652,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -5676,10 +5667,10 @@
         <v>39</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>368</v>
+        <v>297</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -5688,13 +5679,13 @@
         <v>948</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
@@ -5703,19 +5694,19 @@
         <v>6490</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>115</v>
+        <v>211</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>297</v>
+        <v>367</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -5724,13 +5715,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5739,13 +5730,13 @@
         <v>922</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>215</v>
+        <v>172</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -5754,19 +5745,19 @@
         <v>922</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" s="7">
         <v>2</v>
@@ -5775,13 +5766,13 @@
         <v>2034</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>84</v>
+        <v>370</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -5790,13 +5781,13 @@
         <v>981</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>372</v>
+        <v>277</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -5805,19 +5796,19 @@
         <v>3015</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>373</v>
+        <v>35</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>374</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="7">
         <v>5</v>
@@ -5826,13 +5817,13 @@
         <v>5483</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>202</v>
+        <v>267</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>370</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>375</v>
+        <v>240</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -5841,13 +5832,13 @@
         <v>5934</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>376</v>
+        <v>178</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>133</v>
+        <v>371</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
@@ -5856,13 +5847,13 @@
         <v>11417</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>378</v>
+        <v>275</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>326</v>
+        <v>373</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>218</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5877,13 +5868,13 @@
         <v>21793</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>11</v>
+        <v>335</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="H22" s="7">
         <v>31</v>
@@ -5892,13 +5883,13 @@
         <v>31584</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="M22" s="7">
         <v>52</v>
@@ -5907,13 +5898,13 @@
         <v>53377</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>334</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5928,13 +5919,13 @@
         <v>512033</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>385</v>
+        <v>231</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>339</v>
+        <v>382</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H23" s="7">
         <v>486</v>
@@ -5943,13 +5934,13 @@
         <v>508771</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>387</v>
+        <v>263</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="M23" s="7">
         <v>954</v>
@@ -5958,13 +5949,13 @@
         <v>1020804</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6032,13 +6023,13 @@
         <v>64378</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>393</v>
+        <v>237</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>394</v>
+        <v>162</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="H25" s="7">
         <v>35</v>
@@ -6047,13 +6038,13 @@
         <v>35232</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>202</v>
+        <v>267</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>70</v>
+        <v>177</v>
       </c>
       <c r="M25" s="7">
         <v>93</v>
@@ -6062,19 +6053,19 @@
         <v>99610</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>68</v>
+        <v>389</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>11</v>
@@ -6083,13 +6074,13 @@
         <v>11975</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>396</v>
+        <v>33</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>241</v>
+        <v>347</v>
       </c>
       <c r="H26" s="7">
         <v>11</v>
@@ -6098,13 +6089,13 @@
         <v>12328</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>396</v>
+        <v>33</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>79</v>
+        <v>391</v>
       </c>
       <c r="M26" s="7">
         <v>22</v>
@@ -6113,19 +6104,19 @@
         <v>24303</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>396</v>
+        <v>33</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>302</v>
+        <v>373</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" s="7">
         <v>9</v>
@@ -6134,13 +6125,13 @@
         <v>9281</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>373</v>
+        <v>35</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>302</v>
+        <v>40</v>
       </c>
       <c r="H27" s="7">
         <v>7</v>
@@ -6152,10 +6143,10 @@
         <v>167</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>371</v>
+        <v>126</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="M27" s="7">
         <v>16</v>
@@ -6167,16 +6158,16 @@
         <v>170</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C28" s="7">
         <v>58</v>
@@ -6185,13 +6176,13 @@
         <v>60813</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>214</v>
+        <v>392</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>297</v>
+        <v>44</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>249</v>
+        <v>393</v>
       </c>
       <c r="H28" s="7">
         <v>41</v>
@@ -6200,13 +6191,13 @@
         <v>41155</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>325</v>
+        <v>394</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>89</v>
+        <v>322</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>157</v>
+        <v>395</v>
       </c>
       <c r="M28" s="7">
         <v>99</v>
@@ -6215,13 +6206,13 @@
         <v>101968</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>330</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6236,13 +6227,13 @@
         <v>168448</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>399</v>
-      </c>
       <c r="G29" s="7" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="H29" s="7">
         <v>133</v>
@@ -6251,13 +6242,13 @@
         <v>135779</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="M29" s="7">
         <v>292</v>
@@ -6266,13 +6257,13 @@
         <v>304227</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>406</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6287,13 +6278,13 @@
         <v>3058753</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H30" s="7">
         <v>3096</v>
@@ -6302,13 +6293,13 @@
         <v>3297165</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="M30" s="7">
         <v>6012</v>
@@ -6317,13 +6308,13 @@
         <v>6355918</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6379,7 +6370,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
